--- a/files/XLS/20.xlsx
+++ b/files/XLS/20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>##PRIMNOME## voce foi contemplado(a) com um mega desconto referente ao Santander. Somente HOJE. Ligue: 11 2101 0424 ou 0800 878 0424.</t>
   </si>
   <si>
-    <t>IVAN</t>
+    <t>IVAN 2</t>
   </si>
   <si>
     <t>107525334</t>
@@ -29,73 +29,112 @@
     <t>1121010424</t>
   </si>
   <si>
+    <t>IVAN 3</t>
+  </si>
+  <si>
     <t>107525335</t>
   </si>
   <si>
+    <t>IVAN 4</t>
+  </si>
+  <si>
     <t>107525336</t>
   </si>
   <si>
     <t>107525337</t>
   </si>
   <si>
-    <t>JUSCELINO</t>
+    <t>JUSCELIO</t>
   </si>
   <si>
     <t>107525338</t>
   </si>
   <si>
+    <t>JUSCELIN</t>
+  </si>
+  <si>
     <t>107525339</t>
   </si>
   <si>
+    <t>JUCELINO</t>
+  </si>
+  <si>
     <t>107525340</t>
   </si>
   <si>
+    <t>USCELINO</t>
+  </si>
+  <si>
     <t>107525341</t>
   </si>
   <si>
+    <t>CELINO</t>
+  </si>
+  <si>
     <t>107525342</t>
   </si>
   <si>
-    <t>SABRINA</t>
+    <t>SABRIN</t>
   </si>
   <si>
     <t>107525343</t>
   </si>
   <si>
+    <t>SABR</t>
+  </si>
+  <si>
     <t>107525348</t>
   </si>
   <si>
+    <t>SABRI</t>
+  </si>
+  <si>
     <t>107525349</t>
   </si>
   <si>
+    <t>SA</t>
+  </si>
+  <si>
     <t>107525350</t>
   </si>
   <si>
+    <t>SAB</t>
+  </si>
+  <si>
     <t>107525351</t>
   </si>
   <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>107525352</t>
+  </si>
+  <si>
     <t>ROSA</t>
   </si>
   <si>
-    <t>107525352</t>
-  </si>
-  <si>
     <t>107525353</t>
   </si>
   <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>107525373</t>
+  </si>
+  <si>
     <t>MARCELO</t>
   </si>
   <si>
-    <t>107525373</t>
-  </si>
-  <si>
     <t>107525374</t>
   </si>
   <si>
+    <t>CARLO</t>
+  </si>
+  <si>
+    <t>107525375</t>
+  </si>
+  <si>
     <t>CARLOS</t>
-  </si>
-  <si>
-    <t>107525375</t>
   </si>
   <si>
     <t>107525376</t>
@@ -198,7 +237,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -213,7 +252,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>1</v>
@@ -227,13 +266,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>3</v>
@@ -241,13 +280,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>3</v>
@@ -255,13 +294,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4299234180</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>1</v>
+        <v>4299242143</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>555</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>3</v>
@@ -269,13 +308,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>3</v>
@@ -283,13 +322,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>3</v>
@@ -297,13 +336,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>3</v>
@@ -311,13 +350,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>3</v>
@@ -325,13 +364,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>3</v>
@@ -339,13 +378,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>3</v>
@@ -353,13 +392,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>3</v>
@@ -367,13 +406,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>3</v>
@@ -381,13 +420,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>3</v>
@@ -395,13 +434,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>3</v>
@@ -409,13 +448,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>3</v>
@@ -423,13 +462,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>3</v>
@@ -437,13 +476,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>3</v>
@@ -451,13 +490,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>3</v>
@@ -465,13 +504,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>3</v>
@@ -479,13 +518,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>4299234180</v>
+        <v>4299242143</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>3</v>
